--- a/BLEU/EN-Dictionary/HL詞彙解釋.xlsx
+++ b/BLEU/EN-Dictionary/HL詞彙解釋.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\extract_raw-data\EN-Dictionary\Training Set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\extract_raw-data\BLEU\EN-Dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C359EE9B-968D-479B-AF61-B254DD2D5DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7DA2B3-956C-4C8F-A02D-3CA78225275E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="888">
   <si>
     <t>忍</t>
   </si>
@@ -2781,6 +2781,10 @@
   </si>
   <si>
     <t>ZH-TW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure Translation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3129,25 +3133,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:C491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.296875" customWidth="1"/>
     <col min="2" max="2" width="34.19921875" customWidth="1"/>
+    <col min="3" max="3" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>886</v>
       </c>
       <c r="B1" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3163,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3179,7 +3189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3187,7 +3197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3195,7 +3205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3203,7 +3213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3211,7 +3221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3219,7 +3229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3227,7 +3237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -3235,7 +3245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3243,7 +3253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3251,7 +3261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3259,7 +3269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
